--- a/01_要求分析/09_レビュー議事録(要求分析) (2).xlsx
+++ b/01_要求分析/09_レビュー議事録(要求分析) (2).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{4239E440-C9B5-4C55-A66B-39C0651EFBE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{49A29952-5C99-463D-8668-9D11B273E546}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E8B705-71C5-4BF8-86E0-310B14611206}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2955" yWindow="180" windowWidth="15570" windowHeight="10485" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="7" r:id="rId1"/>
@@ -13,14 +13,12 @@
     <sheet name="レビュー結果サンプル" sheetId="5" r:id="rId3"/>
     <sheet name="レビュー結果" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -544,7 +542,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -926,50 +924,50 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1097,7 +1095,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1420,11 +1418,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.625" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
@@ -1432,11 +1430,11 @@
     <col min="4" max="4" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="21"/>
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1444,11 +1442,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
@@ -1456,67 +1454,67 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
-    </row>
-    <row r="4" spans="1:4" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A4" s="24" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
+    </row>
+    <row r="4" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="26"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="29" t="s">
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="29"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="27" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="34"/>
-    </row>
-    <row r="6" spans="1:4" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A6" s="31" t="s">
+      <c r="D5" s="26"/>
+    </row>
+    <row r="6" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="31" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="32"/>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="D6" s="23"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34"/>
-    </row>
-    <row r="8" spans="1:4" ht="36" customHeight="1" thickBot="1">
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
+    </row>
+    <row r="8" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="26"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="27" t="s">
+      <c r="C8" s="28"/>
+      <c r="D8" s="29"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="28"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
@@ -1524,11 +1522,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="27.75" customHeight="1">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="23"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="17" t="s">
         <v>20</v>
       </c>
@@ -1536,11 +1534,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="27.75" customHeight="1">
-      <c r="A11" s="22" t="s">
+    <row r="11" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="23"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="17" t="s">
         <v>20</v>
       </c>
@@ -1548,11 +1546,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="27.75" customHeight="1">
-      <c r="A12" s="22" t="s">
+    <row r="12" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="23"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="17" t="s">
         <v>20</v>
       </c>
@@ -1560,11 +1558,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="27.75" customHeight="1">
-      <c r="A13" s="22" t="s">
+    <row r="13" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="23"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="17" t="s">
         <v>20</v>
       </c>
@@ -1572,43 +1570,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23"/>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="30"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23"/>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="30"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="22"/>
-      <c r="B16" s="23"/>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="30"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="30"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="22"/>
-      <c r="B18" s="23"/>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="30"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
     </row>
-    <row r="19" spans="1:4" ht="14.25" thickBot="1">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
+    <row r="19" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="33"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
     </row>
-    <row r="20" spans="1:4" ht="14.25" thickBot="1">
+    <row r="20" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C20" s="15" t="s">
         <v>24</v>
       </c>
@@ -1619,6 +1617,17 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:D3"/>
@@ -1629,17 +1638,6 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -1663,7 +1661,7 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.625" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
@@ -1671,11 +1669,11 @@
     <col min="4" max="4" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="21"/>
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1683,11 +1681,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:7" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="7" t="s">
         <v>26</v>
       </c>
@@ -1696,67 +1694,67 @@
       </c>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
-    </row>
-    <row r="4" spans="1:7" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A4" s="24" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
+    </row>
+    <row r="4" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="26"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="29" t="s">
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="29"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="27" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="34"/>
-    </row>
-    <row r="6" spans="1:7" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A6" s="31" t="s">
+      <c r="D5" s="26"/>
+    </row>
+    <row r="6" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="31" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="32"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="D6" s="23"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34"/>
-    </row>
-    <row r="8" spans="1:7" ht="36" customHeight="1" thickBot="1">
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
+    </row>
+    <row r="8" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="26"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="27" t="s">
+      <c r="C8" s="28"/>
+      <c r="D8" s="29"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="28"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
@@ -1764,11 +1762,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="23"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="13" t="s">
         <v>34</v>
       </c>
@@ -1776,11 +1774,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A11" s="22" t="s">
+    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="23"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="13" t="s">
         <v>30</v>
       </c>
@@ -1788,11 +1786,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A12" s="22" t="s">
+    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="23"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="13" t="s">
         <v>34</v>
       </c>
@@ -1800,49 +1798,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="30"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="30"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="30"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="22"/>
-      <c r="B16" s="23"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="30"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="30"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="22"/>
-      <c r="B18" s="23"/>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="30"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
     </row>
-    <row r="19" spans="1:4" ht="14.25" thickBot="1">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
+    <row r="19" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="33"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
     </row>
-    <row r="20" spans="1:4" ht="14.25" thickBot="1">
+    <row r="20" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C20" s="15" t="s">
         <v>24</v>
       </c>
@@ -1853,6 +1851,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:B13"/>
@@ -1862,18 +1872,6 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -1897,7 +1895,7 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
@@ -1907,7 +1905,7 @@
     <col min="6" max="6" width="53.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -1930,7 +1928,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="59.25" customHeight="1">
+    <row r="2" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1953,7 +1951,7 @@
         <v>40686</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1962,7 +1960,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1971,7 +1969,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1980,7 +1978,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1989,7 +1987,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1998,7 +1996,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2007,7 +2005,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2016,7 +2014,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2025,7 +2023,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2034,7 +2032,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2043,7 +2041,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2052,7 +2050,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2061,7 +2059,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2070,7 +2068,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2079,7 +2077,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2088,7 +2086,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2097,7 +2095,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2106,7 +2104,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2115,7 +2113,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2124,7 +2122,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2133,7 +2131,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2162,11 +2160,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
@@ -2176,7 +2174,7 @@
     <col min="6" max="6" width="53.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5">
+    <row r="1" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -2199,7 +2197,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="27">
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2220,7 +2218,7 @@
       </c>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2229,7 +2227,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -2238,7 +2236,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="27">
+    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -2257,9 +2255,11 @@
       <c r="F5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" ht="27">
+      <c r="G5" s="9">
+        <v>43985</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -2278,9 +2278,11 @@
       <c r="F6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="9">
+        <v>43985</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2289,7 +2291,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -2310,7 +2312,7 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2319,7 +2321,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2328,7 +2330,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="27">
+    <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>5</v>
       </c>
@@ -2347,9 +2349,11 @@
       <c r="F11" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="9">
+        <v>43985</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2358,7 +2362,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2367,7 +2371,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2376,7 +2380,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2385,7 +2389,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2394,7 +2398,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2403,7 +2407,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2412,7 +2416,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2421,7 +2425,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2430,7 +2434,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2439,7 +2443,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2448,7 +2452,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2472,6 +2476,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2655,29 +2674,37 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01D29276-C38C-4646-B92B-8C8DCC907D95}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07F5ABB-324D-4BA7-94D4-FD7D7F4B2F88}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94CEECAD-71A6-41DD-8A07-4B3A9940E3CF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94CEECAD-71A6-41DD-8A07-4B3A9940E3CF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07F5ABB-324D-4BA7-94D4-FD7D7F4B2F88}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01D29276-C38C-4646-B92B-8C8DCC907D95}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>